--- a/INTLINE/data/142/STANOR/09181 Gross fixed capital formation and capital stocks by industry contents and year.xlsx
+++ b/INTLINE/data/142/STANOR/09181 Gross fixed capital formation and capital stocks by industry contents and year.xlsx
@@ -344,7 +344,7 @@
     <x:t>Consumption of fixed capital. Current prices (NOK million):</x:t>
   </x:si>
   <x:si>
-    <x:t>20220216 08:00</x:t>
+    <x:t>20220513 08:00</x:t>
   </x:si>
   <x:si>
     <x:t>Source:</x:t>
@@ -1133,7 +1133,7 @@
         <x:v>701454</x:v>
       </x:c>
       <x:c r="BB4" s="3" t="n">
-        <x:v>739715</x:v>
+        <x:v>739939</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:54">
@@ -1297,7 +1297,7 @@
         <x:v>11681</x:v>
       </x:c>
       <x:c r="BB5" s="3" t="n">
-        <x:v>12135</x:v>
+        <x:v>12114</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:54">
@@ -1461,7 +1461,7 @@
         <x:v>5738</x:v>
       </x:c>
       <x:c r="BB6" s="3" t="n">
-        <x:v>6271</x:v>
+        <x:v>6274</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:54">
@@ -1789,7 +1789,7 @@
         <x:v>160498</x:v>
       </x:c>
       <x:c r="BB8" s="3" t="n">
-        <x:v>163816</x:v>
+        <x:v>163894</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:54">
@@ -1953,7 +1953,7 @@
         <x:v>155218</x:v>
       </x:c>
       <x:c r="BB9" s="3" t="n">
-        <x:v>158713</x:v>
+        <x:v>158788</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:54">
@@ -2117,7 +2117,7 @@
         <x:v>5280</x:v>
       </x:c>
       <x:c r="BB10" s="3" t="n">
-        <x:v>5104</x:v>
+        <x:v>5106</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:54">
@@ -2281,7 +2281,7 @@
         <x:v>46221</x:v>
       </x:c>
       <x:c r="BB11" s="3" t="n">
-        <x:v>48051</x:v>
+        <x:v>48073</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:54">
@@ -2445,7 +2445,7 @@
         <x:v>10219</x:v>
       </x:c>
       <x:c r="BB12" s="3" t="n">
-        <x:v>10825</x:v>
+        <x:v>10828</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:54">
@@ -2609,7 +2609,7 @@
         <x:v>7635</x:v>
       </x:c>
       <x:c r="BB13" s="3" t="n">
-        <x:v>7908</x:v>
+        <x:v>7911</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:54">
@@ -2773,7 +2773,7 @@
         <x:v>2585</x:v>
       </x:c>
       <x:c r="BB14" s="3" t="n">
-        <x:v>2917</x:v>
+        <x:v>2918</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:54">
@@ -3101,7 +3101,7 @@
         <x:v>1547</x:v>
       </x:c>
       <x:c r="BB16" s="3" t="n">
-        <x:v>1593</x:v>
+        <x:v>1594</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:54">
@@ -3429,7 +3429,7 @@
         <x:v>543</x:v>
       </x:c>
       <x:c r="BB18" s="3" t="n">
-        <x:v>519</x:v>
+        <x:v>520</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="1:54">
@@ -3593,7 +3593,7 @@
         <x:v>8849</x:v>
       </x:c>
       <x:c r="BB19" s="3" t="n">
-        <x:v>9076</x:v>
+        <x:v>9080</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:54">
@@ -3757,7 +3757,7 @@
         <x:v>4398</x:v>
       </x:c>
       <x:c r="BB20" s="3" t="n">
-        <x:v>4497</x:v>
+        <x:v>4498</x:v>
       </x:c>
     </x:row>
     <x:row r="21" spans="1:54">
@@ -3921,7 +3921,7 @@
         <x:v>2939</x:v>
       </x:c>
       <x:c r="BB21" s="3" t="n">
-        <x:v>3232</x:v>
+        <x:v>3233</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:54">
@@ -4085,7 +4085,7 @@
         <x:v>4954</x:v>
       </x:c>
       <x:c r="BB22" s="3" t="n">
-        <x:v>5181</x:v>
+        <x:v>5182</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:54">
@@ -4249,7 +4249,7 @@
         <x:v>9573</x:v>
       </x:c>
       <x:c r="BB23" s="3" t="n">
-        <x:v>10002</x:v>
+        <x:v>10011</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:54">
@@ -4413,7 +4413,7 @@
         <x:v>2720</x:v>
       </x:c>
       <x:c r="BB24" s="3" t="n">
-        <x:v>2736</x:v>
+        <x:v>2737</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:54">
@@ -4577,7 +4577,7 @@
         <x:v>1135</x:v>
       </x:c>
       <x:c r="BB25" s="3" t="n">
-        <x:v>1188</x:v>
+        <x:v>1189</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="1:54">
@@ -4741,7 +4741,7 @@
         <x:v>2015</x:v>
       </x:c>
       <x:c r="BB26" s="3" t="n">
-        <x:v>1948</x:v>
+        <x:v>1949</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:54">
@@ -4905,7 +4905,7 @@
         <x:v>22023</x:v>
       </x:c>
       <x:c r="BB27" s="3" t="n">
-        <x:v>23566</x:v>
+        <x:v>23572</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:54">
@@ -5069,7 +5069,7 @@
         <x:v>10003</x:v>
       </x:c>
       <x:c r="BB28" s="3" t="n">
-        <x:v>10905</x:v>
+        <x:v>10912</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:54">
@@ -5233,7 +5233,7 @@
         <x:v>18979</x:v>
       </x:c>
       <x:c r="BB29" s="3" t="n">
-        <x:v>20146</x:v>
+        <x:v>20154</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:54">
@@ -5397,7 +5397,7 @@
         <x:v>23608</x:v>
       </x:c>
       <x:c r="BB30" s="3" t="n">
-        <x:v>25290</x:v>
+        <x:v>25303</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:54">
@@ -5561,7 +5561,7 @@
         <x:v>5271</x:v>
       </x:c>
       <x:c r="BB31" s="3" t="n">
-        <x:v>4948</x:v>
+        <x:v>4950</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:54">
@@ -5725,7 +5725,7 @@
         <x:v>12364</x:v>
       </x:c>
       <x:c r="BB32" s="3" t="n">
-        <x:v>11794</x:v>
+        <x:v>11800</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:54">
@@ -5889,7 +5889,7 @@
         <x:v>22262</x:v>
       </x:c>
       <x:c r="BB33" s="3" t="n">
-        <x:v>22511</x:v>
+        <x:v>22523</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:54">
@@ -6053,7 +6053,7 @@
         <x:v>1027</x:v>
       </x:c>
       <x:c r="BB34" s="3" t="n">
-        <x:v>1080</x:v>
+        <x:v>1081</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:54">
@@ -6217,7 +6217,7 @@
         <x:v>3915</x:v>
       </x:c>
       <x:c r="BB35" s="3" t="n">
-        <x:v>3901</x:v>
+        <x:v>3902</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:54">
@@ -6381,7 +6381,7 @@
         <x:v>32506</x:v>
       </x:c>
       <x:c r="BB36" s="3" t="n">
-        <x:v>34489</x:v>
+        <x:v>34514</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:54">
@@ -6545,7 +6545,7 @@
         <x:v>12655</x:v>
       </x:c>
       <x:c r="BB37" s="3" t="n">
-        <x:v>14373</x:v>
+        <x:v>14380</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:54">
@@ -6709,7 +6709,7 @@
         <x:v>29707</x:v>
       </x:c>
       <x:c r="BB38" s="3" t="n">
-        <x:v>32096</x:v>
+        <x:v>32108</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:54">
@@ -6873,7 +6873,7 @@
         <x:v>104516</x:v>
       </x:c>
       <x:c r="BB39" s="3" t="n">
-        <x:v>113528</x:v>
+        <x:v>113496</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:54">
@@ -7037,7 +7037,7 @@
         <x:v>19037</x:v>
       </x:c>
       <x:c r="BB40" s="3" t="n">
-        <x:v>20272</x:v>
+        <x:v>20291</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:54">
@@ -7201,7 +7201,7 @@
         <x:v>12171</x:v>
       </x:c>
       <x:c r="BB41" s="3" t="n">
-        <x:v>12393</x:v>
+        <x:v>12403</x:v>
       </x:c>
     </x:row>
     <x:row r="42" spans="1:54">
@@ -7365,7 +7365,7 @@
         <x:v>74260</x:v>
       </x:c>
       <x:c r="BB42" s="3" t="n">
-        <x:v>79923</x:v>
+        <x:v>79900</x:v>
       </x:c>
     </x:row>
     <x:row r="43" spans="1:54">
@@ -7529,7 +7529,7 @@
         <x:v>35297</x:v>
       </x:c>
       <x:c r="BB43" s="3" t="n">
-        <x:v>37702</x:v>
+        <x:v>37799</x:v>
       </x:c>
     </x:row>
     <x:row r="44" spans="1:54">
@@ -7693,7 +7693,7 @@
         <x:v>27040</x:v>
       </x:c>
       <x:c r="BB44" s="3" t="n">
-        <x:v>29271</x:v>
+        <x:v>29315</x:v>
       </x:c>
     </x:row>
     <x:row r="45" spans="1:54">
@@ -7857,7 +7857,7 @@
         <x:v>8779</x:v>
       </x:c>
       <x:c r="BB45" s="3" t="n">
-        <x:v>9255</x:v>
+        <x:v>9183</x:v>
       </x:c>
     </x:row>
     <x:row r="46" spans="1:54">
@@ -8021,7 +8021,7 @@
         <x:v>139734</x:v>
       </x:c>
       <x:c r="BB46" s="3" t="n">
-        <x:v>150522</x:v>
+        <x:v>150569</x:v>
       </x:c>
     </x:row>
     <x:row r="47" spans="1:54">
@@ -8185,7 +8185,7 @@
         <x:v>84105</x:v>
       </x:c>
       <x:c r="BB47" s="3" t="n">
-        <x:v>90686</x:v>
+        <x:v>90697</x:v>
       </x:c>
     </x:row>
     <x:row r="48" spans="1:54">
@@ -8349,7 +8349,7 @@
         <x:v>66858</x:v>
       </x:c>
       <x:c r="BB48" s="3" t="n">
-        <x:v>72383</x:v>
+        <x:v>72391</x:v>
       </x:c>
     </x:row>
     <x:row r="49" spans="1:54">
@@ -8513,7 +8513,7 @@
         <x:v>17247</x:v>
       </x:c>
       <x:c r="BB49" s="3" t="n">
-        <x:v>18302</x:v>
+        <x:v>18306</x:v>
       </x:c>
     </x:row>
     <x:row r="50" spans="1:54">
@@ -8677,7 +8677,7 @@
         <x:v>55629</x:v>
       </x:c>
       <x:c r="BB50" s="3" t="n">
-        <x:v>59836</x:v>
+        <x:v>59873</x:v>
       </x:c>
     </x:row>
     <x:row r="51" spans="1:54">
@@ -8841,7 +8841,7 @@
         <x:v>528601</x:v>
       </x:c>
       <x:c r="BB51" s="3" t="n">
-        <x:v>564262</x:v>
+        <x:v>564401</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:54">
@@ -9005,7 +9005,7 @@
         <x:v>277709</x:v>
       </x:c>
       <x:c r="BB52" s="3" t="n">
-        <x:v>293174</x:v>
+        <x:v>293297</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:54">
@@ -9169,7 +9169,7 @@
         <x:v>450562</x:v>
       </x:c>
       <x:c r="BB53" s="3" t="n">
-        <x:v>468628</x:v>
+        <x:v>468834</x:v>
       </x:c>
     </x:row>
     <x:row r="54" spans="1:54">
@@ -9333,7 +9333,7 @@
         <x:v>250893</x:v>
       </x:c>
       <x:c r="BB54" s="3" t="n">
-        <x:v>271088</x:v>
+        <x:v>271104</x:v>
       </x:c>
     </x:row>
     <x:row r="56" spans="1:54">
